--- a/biology/Zoologie/Abia_sericea/Abia_sericea.xlsx
+++ b/biology/Zoologie/Abia_sericea/Abia_sericea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abia sericea est une espèce d'insectes de l'ordre des hyménoptères et du sous-ordre des symphytes.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition
-Il est présent en Europe, y compris en France.
-Habitat
-On le trouve au bord des bois et dans les prairies de mai à août.
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Europe, y compris en France.
 </t>
         </is>
       </c>
@@ -542,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Morphologie</t>
+          <t>Répartition et habitat</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'imago est de couleur vert métallique ou cuivré et mesure entre 10 et 12 mm. Il possède des lignes de poils clairs sur l'abdomen. Ses pattes sont jaunes[1].
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve au bord des bois et dans les prairies de mai à août.
 </t>
         </is>
       </c>
@@ -573,12 +594,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les larves se développent sur divers végétaux herbacés[1] notamment sur la Knautie des champs (Knautia arvensis) et la Succise (Succisa pratensis)[2].
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago est de couleur vert métallique ou cuivré et mesure entre 10 et 12 mm. Il possède des lignes de poils clairs sur l'abdomen. Ses pattes sont jaunes.
 </t>
         </is>
       </c>
@@ -604,12 +627,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Systématique</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Abia sericea a été décrite par Carl von Linné en 1767.
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les larves se développent sur divers végétaux herbacés notamment sur la Knautie des champs (Knautia arvensis) et la Succise (Succisa pratensis).
 </t>
         </is>
       </c>
@@ -635,10 +660,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Abia sericea a été décrite par Carl von Linné en 1767.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Abia_sericea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abia_sericea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Abia dorsalis Costa
 Abia serica (Linnaeus)
